--- a/Base.xlsx
+++ b/Base.xlsx
@@ -521,11 +521,11 @@
   </sheetPr>
   <dimension ref="A1:AC1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G49" activeCellId="0" sqref="G49"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A369" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E380" activeCellId="0" sqref="E380:E391"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.59375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="19.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="2" width="7.63"/>
@@ -6992,7 +6992,7 @@
         <v>20829.806666906</v>
       </c>
       <c r="E380" s="2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="381" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7009,7 +7009,7 @@
         <v>24815.0730319079</v>
       </c>
       <c r="E381" s="2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="382" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7026,7 +7026,7 @@
         <v>28545.2948045862</v>
       </c>
       <c r="E382" s="2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="383" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7043,7 +7043,7 @@
         <v>36466.8331935355</v>
       </c>
       <c r="E383" s="2" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="384" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7060,7 +7060,7 @@
         <v>45381.1559885484</v>
       </c>
       <c r="E384" s="2" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="385" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7077,7 +7077,7 @@
         <v>54761.3320322038</v>
       </c>
       <c r="E385" s="2" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="386" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7094,7 +7094,7 @@
         <v>67201.9783997803</v>
       </c>
       <c r="E386" s="2" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="387" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7111,7 +7111,7 @@
         <v>100030.081596135</v>
       </c>
       <c r="E387" s="2" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="388" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7128,7 +7128,7 @@
         <v>123657.053290533</v>
       </c>
       <c r="E388" s="2" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="389" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7145,7 +7145,7 @@
         <v>172596.418905327</v>
       </c>
       <c r="E389" s="2" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="390" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7162,7 +7162,7 @@
         <v>213562.830202737</v>
       </c>
       <c r="E390" s="2" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="391" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7179,7 +7179,7 @@
         <v>301177.345305953</v>
       </c>
       <c r="E391" s="2" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="392" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11556,10 +11556,10 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="0" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topRight" activeCell="C2" activeCellId="1" sqref="E380:E391 C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.59375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="40.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="2" style="0" width="7.63"/>
@@ -14750,10 +14750,10 @@
   <dimension ref="A1:D1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="E380:E391 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.59375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.63"/>
